--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>用例编号</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>注册账号-用户名已存在——002</t>
+  </si>
+  <si>
+    <t>登录账号-登录成功</t>
+  </si>
+  <si>
+    <t>/login</t>
   </si>
 </sst>
 </file>
@@ -86,25 +92,10 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -570,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -716,22 +707,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1087,8 +1078,8 @@
   <sheetPr/>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
@@ -1098,7 +1089,7 @@
     <col min="4" max="4" width="29.7477477477477" customWidth="1"/>
     <col min="5" max="5" width="8.87387387387387" customWidth="1"/>
     <col min="6" max="6" width="21.8738738738739" customWidth="1"/>
-    <col min="7" max="7" width="98.7477477477478" customWidth="1"/>
+    <col min="7" max="7" width="42.0990990990991" customWidth="1"/>
     <col min="8" max="8" width="14.6216216216216" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1206,10 +1197,29 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5"/>
@@ -1701,6 +1711,7 @@
     <hyperlink ref="C2" r:id="rId1" display="http://127.0.0.1:5000"/>
     <hyperlink ref="C3" r:id="rId1" display="http://127.0.0.1:5000"/>
     <hyperlink ref="C4" r:id="rId1" display="http://127.0.0.1:5000"/>
+    <hyperlink ref="C5" r:id="rId1" display="http://127.0.0.1:5000"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>用例编号</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>注册账号-用户名已存在——002</t>
+  </si>
+  <si>
+    <t>API_0004</t>
   </si>
   <si>
     <t>登录账号-登录成功</t>
@@ -1078,8 +1081,8 @@
   <sheetPr/>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
@@ -1198,15 +1201,17 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>

--- a/testCase/testCase.xlsx
+++ b/testCase/testCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>用例编号</t>
   </si>
@@ -40,6 +40,9 @@
     <t>断言body-code</t>
   </si>
   <si>
+    <t>是否跳过</t>
+  </si>
+  <si>
     <t>API_0001</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>{"username":"adc", "passwd":"123"}</t>
   </si>
   <si>
+    <t>continue</t>
+  </si>
+  <si>
     <t>API_0002</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t>{"username":"Merlin", "passwd":"123"}</t>
+  </si>
+  <si>
+    <t>skip</t>
   </si>
   <si>
     <t>API_0003</t>
@@ -1079,24 +1088,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="2" max="2" width="39.3783783783784" customWidth="1"/>
-    <col min="3" max="3" width="71.7477477477478" customWidth="1"/>
-    <col min="4" max="4" width="29.7477477477477" customWidth="1"/>
+    <col min="3" max="3" width="24.0900900900901" customWidth="1"/>
+    <col min="4" max="4" width="10.5495495495495" customWidth="1"/>
     <col min="5" max="5" width="8.87387387387387" customWidth="1"/>
     <col min="6" max="6" width="21.8738738738739" customWidth="1"/>
     <col min="7" max="7" width="42.0990990990991" customWidth="1"/>
     <col min="8" max="8" width="14.6216216216216" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,109 +1130,124 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H4">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>200</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
